--- a/diversity_summary.xlsx
+++ b/diversity_summary.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4419</v>
+        <v>0.4408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0553</v>
+        <v>0.0588</v>
       </c>
     </row>
     <row r="3">
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4313</v>
+        <v>0.4108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0561</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4364</v>
+        <v>0.4359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.058</v>
+        <v>0.0631</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4072</v>
+        <v>0.3994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="3">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4328</v>
+        <v>0.4064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.034</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="4">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.36</v>
+        <v>0.3669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0459</v>
+        <v>0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4367</v>
+        <v>0.5402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.061</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="3">
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3471</v>
+        <v>0.4753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0766</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="4">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4981</v>
+        <v>0.5314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0494</v>
+        <v>0.048</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4018</v>
+        <v>0.4674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0394</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="3">
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3176</v>
+        <v>0.4604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0502</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="4">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3542</v>
+        <v>0.4951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0472</v>
+        <v>0.0321</v>
       </c>
     </row>
   </sheetData>
